--- a/data/Supplemental File 4_scRNAseq DE Ciliome in mesenchyme clusters.xlsx
+++ b/data/Supplemental File 4_scRNAseq DE Ciliome in mesenchyme clusters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/Dev Cell-Resource-CiliaHet-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44A803AF-1D95-B242-86F9-5EFBA125A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B14381-F35F-134A-A911-2A48CB228C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="620" windowWidth="24060" windowHeight="14120" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
+    <workbookView xWindow="2260" yWindow="540" windowWidth="24060" windowHeight="14120" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1202,7 +1206,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/Supplemental File 4_scRNAseq DE Ciliome in mesenchyme clusters.xlsx
+++ b/data/Supplemental File 4_scRNAseq DE Ciliome in mesenchyme clusters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/Dev Cell-Resource-CiliaHet-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Konrad\Shiny_Sam\Ciliome_Gene_Expression\data_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B14381-F35F-134A-A911-2A48CB228C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A2B65D5-6CB0-40CD-AF86-C08E27058D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2260" yWindow="540" windowWidth="24060" windowHeight="14120" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="259">
   <si>
     <t>SysCilia-X denotes confirmed, Y denotes potential ciliary gene</t>
   </si>
@@ -809,13 +809,16 @@
   </si>
   <si>
     <t>119 DE Custom Ciliome expressed in scRNA-seq mesenchyme clusters</t>
+  </si>
+  <si>
+    <t>colors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +848,14 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -879,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -888,6 +899,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,59 +1217,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE45251-9DC3-4DD6-97D6-E387CB3E9E15}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1280,8 +1294,11 @@
       <c r="H8" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>187</v>
       </c>
@@ -1306,8 +1323,11 @@
       <c r="H9" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>188</v>
       </c>
@@ -1332,8 +1352,11 @@
       <c r="H10" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>189</v>
       </c>
@@ -1358,8 +1381,11 @@
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>190</v>
       </c>
@@ -1384,8 +1410,11 @@
       <c r="H12" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>191</v>
       </c>
@@ -1410,8 +1439,11 @@
       <c r="H13" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>192</v>
       </c>
@@ -1436,8 +1468,11 @@
       <c r="H14" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -1456,8 +1491,11 @@
       <c r="H15" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -1476,8 +1514,11 @@
       <c r="H16" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
@@ -1496,8 +1537,11 @@
       <c r="H17" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>193</v>
       </c>
@@ -1522,8 +1566,11 @@
       <c r="H18" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>194</v>
       </c>
@@ -1548,8 +1595,11 @@
       <c r="H19" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>98</v>
       </c>
@@ -1571,8 +1621,11 @@
       <c r="H20" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>195</v>
       </c>
@@ -1597,8 +1650,11 @@
       <c r="H21" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>196</v>
       </c>
@@ -1623,8 +1679,11 @@
       <c r="H22" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>197</v>
       </c>
@@ -1649,8 +1708,11 @@
       <c r="H23" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>198</v>
       </c>
@@ -1675,8 +1737,11 @@
       <c r="H24" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>199</v>
       </c>
@@ -1701,8 +1766,11 @@
       <c r="H25" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -1721,8 +1789,11 @@
       <c r="H26" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1744,8 +1815,11 @@
       <c r="H27" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>200</v>
       </c>
@@ -1770,8 +1844,11 @@
       <c r="H28" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -1793,8 +1870,11 @@
       <c r="H29" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>201</v>
       </c>
@@ -1819,8 +1899,11 @@
       <c r="H30" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>104</v>
       </c>
@@ -1839,8 +1922,11 @@
       <c r="H31" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>202</v>
       </c>
@@ -1865,8 +1951,11 @@
       <c r="H32" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>203</v>
       </c>
@@ -1891,8 +1980,11 @@
       <c r="H33" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>204</v>
       </c>
@@ -1917,8 +2009,11 @@
       <c r="H34" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>205</v>
       </c>
@@ -1943,8 +2038,11 @@
       <c r="H35" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -1963,8 +2061,11 @@
       <c r="H36" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1983,8 +2084,11 @@
       <c r="H37" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -2003,8 +2107,11 @@
       <c r="H38" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -2026,8 +2133,11 @@
       <c r="H39" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>206</v>
       </c>
@@ -2052,8 +2162,11 @@
       <c r="H40" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>207</v>
       </c>
@@ -2078,8 +2191,11 @@
       <c r="H41" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>208</v>
       </c>
@@ -2104,8 +2220,11 @@
       <c r="H42" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="H43" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>82</v>
       </c>
@@ -2147,8 +2269,11 @@
       <c r="H44" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>209</v>
       </c>
@@ -2173,8 +2298,11 @@
       <c r="H45" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>210</v>
       </c>
@@ -2199,8 +2327,11 @@
       <c r="H46" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
@@ -2219,8 +2350,11 @@
       <c r="H47" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>211</v>
       </c>
@@ -2245,8 +2379,11 @@
       <c r="H48" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
@@ -2271,8 +2408,11 @@
       <c r="H49" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>213</v>
       </c>
@@ -2297,8 +2437,11 @@
       <c r="H50" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
@@ -2323,8 +2466,11 @@
       <c r="H51" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>215</v>
       </c>
@@ -2349,8 +2495,11 @@
       <c r="H52" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>62</v>
       </c>
@@ -2369,8 +2518,11 @@
       <c r="H53" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>80</v>
       </c>
@@ -2392,8 +2544,11 @@
       <c r="H54" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>216</v>
       </c>
@@ -2418,8 +2573,11 @@
       <c r="H55" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>217</v>
       </c>
@@ -2444,8 +2602,11 @@
       <c r="H56" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>114</v>
       </c>
@@ -2467,8 +2628,11 @@
       <c r="H57" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>16</v>
       </c>
@@ -2490,8 +2654,11 @@
       <c r="H58" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>218</v>
       </c>
@@ -2516,8 +2683,11 @@
       <c r="H59" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>219</v>
       </c>
@@ -2542,8 +2712,11 @@
       <c r="H60" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>44</v>
       </c>
@@ -2565,8 +2738,11 @@
       <c r="H61" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>220</v>
       </c>
@@ -2591,8 +2767,11 @@
       <c r="H62" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>221</v>
       </c>
@@ -2617,8 +2796,11 @@
       <c r="H63" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>108</v>
       </c>
@@ -2640,8 +2822,11 @@
       <c r="H64" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>222</v>
       </c>
@@ -2666,8 +2851,11 @@
       <c r="H65" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>223</v>
       </c>
@@ -2692,8 +2880,11 @@
       <c r="H66" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>224</v>
       </c>
@@ -2718,8 +2909,11 @@
       <c r="H67" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>52</v>
       </c>
@@ -2738,8 +2932,11 @@
       <c r="H68" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>26</v>
       </c>
@@ -2758,8 +2955,11 @@
       <c r="H69" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>225</v>
       </c>
@@ -2784,8 +2984,11 @@
       <c r="H70" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
@@ -2804,8 +3007,11 @@
       <c r="H71" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>226</v>
       </c>
@@ -2830,8 +3036,11 @@
       <c r="H72" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>227</v>
       </c>
@@ -2856,8 +3065,11 @@
       <c r="H73" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
@@ -2882,8 +3094,11 @@
       <c r="H74" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>229</v>
       </c>
@@ -2908,8 +3123,11 @@
       <c r="H75" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>90</v>
       </c>
@@ -2931,8 +3149,11 @@
       <c r="H76" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -2951,8 +3172,11 @@
       <c r="H77" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
@@ -2977,8 +3201,11 @@
       <c r="H78" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>116</v>
       </c>
@@ -3000,8 +3227,11 @@
       <c r="H79" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
@@ -3020,8 +3250,11 @@
       <c r="H80" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>100</v>
       </c>
@@ -3043,8 +3276,11 @@
       <c r="H81" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
@@ -3069,8 +3305,11 @@
       <c r="H82" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>232</v>
       </c>
@@ -3095,8 +3334,11 @@
       <c r="H83" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>255</v>
       </c>
@@ -3115,8 +3357,11 @@
       <c r="H84" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>233</v>
       </c>
@@ -3141,8 +3386,11 @@
       <c r="H85" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>234</v>
       </c>
@@ -3167,8 +3415,11 @@
       <c r="H86" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>112</v>
       </c>
@@ -3187,8 +3438,11 @@
       <c r="H87" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>38</v>
       </c>
@@ -3207,8 +3461,11 @@
       <c r="H88" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>235</v>
       </c>
@@ -3233,8 +3490,11 @@
       <c r="H89" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>74</v>
       </c>
@@ -3253,8 +3513,11 @@
       <c r="H90" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -3276,8 +3539,11 @@
       <c r="H91" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>236</v>
       </c>
@@ -3293,8 +3559,11 @@
       <c r="H92" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>237</v>
       </c>
@@ -3319,8 +3588,11 @@
       <c r="H93" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>96</v>
       </c>
@@ -3339,8 +3611,11 @@
       <c r="H94" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>238</v>
       </c>
@@ -3365,8 +3640,11 @@
       <c r="H95" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>239</v>
       </c>
@@ -3391,8 +3669,11 @@
       <c r="H96" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>30</v>
       </c>
@@ -3411,8 +3692,11 @@
       <c r="H97" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>88</v>
       </c>
@@ -3434,8 +3718,11 @@
       <c r="H98" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>84</v>
       </c>
@@ -3457,8 +3744,11 @@
       <c r="H99" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>240</v>
       </c>
@@ -3483,8 +3773,11 @@
       <c r="H100" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>72</v>
       </c>
@@ -3506,8 +3799,11 @@
       <c r="H101" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>241</v>
       </c>
@@ -3532,8 +3828,11 @@
       <c r="H102" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>242</v>
       </c>
@@ -3558,8 +3857,11 @@
       <c r="H103" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>243</v>
       </c>
@@ -3584,8 +3886,11 @@
       <c r="H104" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>22</v>
       </c>
@@ -3607,8 +3912,11 @@
       <c r="H105" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>32</v>
       </c>
@@ -3630,8 +3938,11 @@
       <c r="H106" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -3650,8 +3961,11 @@
       <c r="H107" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
@@ -3673,8 +3987,11 @@
       <c r="H108" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>86</v>
       </c>
@@ -3696,8 +4013,11 @@
       <c r="H109" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>244</v>
       </c>
@@ -3722,8 +4042,11 @@
       <c r="H110" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>70</v>
       </c>
@@ -3742,8 +4065,11 @@
       <c r="H111" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>76</v>
       </c>
@@ -3762,8 +4088,11 @@
       <c r="H112" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>48</v>
       </c>
@@ -3782,8 +4111,11 @@
       <c r="H113" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>245</v>
       </c>
@@ -3808,8 +4140,11 @@
       <c r="H114" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>246</v>
       </c>
@@ -3834,8 +4169,11 @@
       <c r="H115" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>247</v>
       </c>
@@ -3860,8 +4198,11 @@
       <c r="H116" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>24</v>
       </c>
@@ -3883,8 +4224,11 @@
       <c r="H117" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>106</v>
       </c>
@@ -3906,8 +4250,11 @@
       <c r="H118" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>58</v>
       </c>
@@ -3929,8 +4276,11 @@
       <c r="H119" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>92</v>
       </c>
@@ -3949,8 +4299,11 @@
       <c r="H120" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>248</v>
       </c>
@@ -3975,8 +4328,11 @@
       <c r="H121" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>249</v>
       </c>
@@ -4001,8 +4357,11 @@
       <c r="H122" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>34</v>
       </c>
@@ -4021,8 +4380,11 @@
       <c r="H123" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>50</v>
       </c>
@@ -4041,8 +4403,11 @@
       <c r="H124" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>110</v>
       </c>
@@ -4061,8 +4426,11 @@
       <c r="H125" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>66</v>
       </c>
@@ -4081,8 +4449,11 @@
       <c r="H126" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>40</v>
       </c>
@@ -4097,6 +4468,9 @@
       </c>
       <c r="H127" s="1" t="s">
         <v>250</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
